--- a/Documents/Sprint Burndown Charts.xlsx
+++ b/Documents/Sprint Burndown Charts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>Tasks</t>
   </si>
@@ -57,40 +57,46 @@
     <t>Update BRD</t>
   </si>
   <si>
+    <t>Business Requirement Document</t>
+  </si>
+  <si>
+    <t>Management Plan</t>
+  </si>
+  <si>
     <t>Update Management Plan</t>
   </si>
   <si>
+    <t>Create Database</t>
+  </si>
+  <si>
+    <t>Populate Sprint Board</t>
+  </si>
+  <si>
     <t>Start Architectural and Design Documents</t>
   </si>
   <si>
-    <t>Business Requirement Document</t>
-  </si>
-  <si>
-    <t>Management Plan</t>
-  </si>
-  <si>
-    <t>Create Database</t>
-  </si>
-  <si>
-    <t>Populate Sprint Board</t>
-  </si>
-  <si>
     <t>Estimated Remaining Effort</t>
   </si>
   <si>
     <t>Actual Remaining Effort</t>
   </si>
   <si>
+    <t>Generate Graph for this</t>
+  </si>
+  <si>
     <t>https://reqtest.com/agile-blog/burndown-chart-tool/</t>
   </si>
   <si>
-    <t>Generate Graph for this</t>
+    <t>Code Release 2.0</t>
   </si>
   <si>
     <t>User Manual</t>
   </si>
   <si>
-    <t>Code Release 2.0</t>
+    <t>User Eval on Code Release 2.0</t>
+  </si>
+  <si>
+    <t>Update Project Documentation</t>
   </si>
   <si>
     <t>Team Sprint #4 Planning Meeting</t>
@@ -102,43 +108,100 @@
     <t>Create Test Plan</t>
   </si>
   <si>
+    <t>Create Machine Learning Model</t>
+  </si>
+  <si>
+    <t>Database/Back-End Account Creation</t>
+  </si>
+  <si>
+    <t>Test Account Creation and Login</t>
+  </si>
+  <si>
+    <t>Database/Back-end Profile</t>
+  </si>
+  <si>
+    <t>UI for Login to Website using Google Account</t>
+  </si>
+  <si>
+    <t>Test Profile Editing</t>
+  </si>
+  <si>
+    <t>UI for Player Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Sprint #5 Planning Meeting	</t>
+  </si>
+  <si>
+    <t>Create UI for Rating System to Rate Other Players</t>
+  </si>
+  <si>
+    <t>Connect Rating System to Database</t>
+  </si>
+  <si>
+    <t>Test Rating System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Sprint #6 Planning Meeting        </t>
+  </si>
+  <si>
+    <t>UI for Player Profile (Interests, Location, etc.)</t>
+  </si>
+  <si>
+    <t>Datbase Profile Editing</t>
+  </si>
+  <si>
     <t>Code Release 1.0</t>
   </si>
   <si>
-    <t>Create Machine Learning Model</t>
-  </si>
-  <si>
-    <t>Database/Back-End Account Creation</t>
-  </si>
-  <si>
-    <t>User Eval on Code Release 2.0</t>
+    <t>Create a User Manuel</t>
   </si>
   <si>
     <t>Team Evaluation of Code</t>
   </si>
   <si>
-    <t>Test Account Creation and Login</t>
-  </si>
-  <si>
-    <t>Update Project Documentation</t>
-  </si>
-  <si>
-    <t>Database/Back-end Profile</t>
-  </si>
-  <si>
-    <t>UI for Login to Website using Google Account</t>
-  </si>
-  <si>
-    <t>Test Profile Editing</t>
-  </si>
-  <si>
-    <t>UI for Player Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Sprint #5 Planning Meeting	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team Sprint #6 Planning Meeting        </t>
+    <t>Database for Creating Events</t>
+  </si>
+  <si>
+    <t>UI for join an event</t>
+  </si>
+  <si>
+    <t>UI for Create an Event</t>
+  </si>
+  <si>
+    <t>Database for joining an event</t>
+  </si>
+  <si>
+    <t>UI for Rating System to Rate other players</t>
+  </si>
+  <si>
+    <t>Connect Rating System to database</t>
+  </si>
+  <si>
+    <t>Testing Create Event</t>
+  </si>
+  <si>
+    <t>UI for Join an Event</t>
+  </si>
+  <si>
+    <t>Database for Joining Events</t>
+  </si>
+  <si>
+    <t>Testing Join Event</t>
+  </si>
+  <si>
+    <t>Create/Modify ML Data Set</t>
+  </si>
+  <si>
+    <t>Create/Modify a Model</t>
+  </si>
+  <si>
+    <t>Testing Join event</t>
+  </si>
+  <si>
+    <t>Testing Model Using DataSet</t>
+  </si>
+  <si>
+    <t>Create/modify ML data set</t>
   </si>
   <si>
     <t>Create/modify a model</t>
@@ -147,109 +210,43 @@
     <t>Test model using data set</t>
   </si>
   <si>
-    <t>Create UI for Rating System to Rate Other Players</t>
-  </si>
-  <si>
-    <t>Create a User Manuel</t>
-  </si>
-  <si>
-    <t>Connect Rating System to Database</t>
-  </si>
-  <si>
-    <t>Test Rating System</t>
-  </si>
-  <si>
-    <t>UI for Player Profile (Interests, Location, etc.)</t>
+    <t>Research how to implement the API</t>
+  </si>
+  <si>
+    <t>Test model using Dataset</t>
+  </si>
+  <si>
+    <t>Apply ML model in either Python/Node.js and show it on UI</t>
+  </si>
+  <si>
+    <t>Test from users perspective</t>
+  </si>
+  <si>
+    <t>List of Local park within certain range</t>
+  </si>
+  <si>
+    <t>Create Map Around User</t>
+  </si>
+  <si>
+    <t>Test all Functionality</t>
+  </si>
+  <si>
+    <t>Star rating - own user can't rate their own profile</t>
+  </si>
+  <si>
+    <t>Star rating - own user can rate other profile</t>
+  </si>
+  <si>
+    <t>Create a map of the local area around school</t>
   </si>
   <si>
     <t>star rating - other user can rate other profile</t>
   </si>
   <si>
-    <t>UI for join an event</t>
-  </si>
-  <si>
-    <t>Datbase Profile Editing</t>
-  </si>
-  <si>
     <t>star rating - other user cant' rate their own profile</t>
   </si>
   <si>
-    <t>Database for joining an event</t>
-  </si>
-  <si>
     <t>profile interactions - other user view other profile</t>
-  </si>
-  <si>
-    <t>UI for Rating System to Rate other players</t>
-  </si>
-  <si>
-    <t>Connect Rating System to database</t>
-  </si>
-  <si>
-    <t>Database for Creating Events</t>
-  </si>
-  <si>
-    <t>Testing Join event</t>
-  </si>
-  <si>
-    <t>Create/modify ML data set</t>
-  </si>
-  <si>
-    <t>UI for Create an Event</t>
-  </si>
-  <si>
-    <t>Testing Create Event</t>
-  </si>
-  <si>
-    <t>UI for Join an Event</t>
-  </si>
-  <si>
-    <t>Research how to implement the API</t>
-  </si>
-  <si>
-    <t>Database for Joining Events</t>
-  </si>
-  <si>
-    <t>Testing Join Event</t>
-  </si>
-  <si>
-    <t>Create/Modify ML Data Set</t>
-  </si>
-  <si>
-    <t>Create/Modify a Model</t>
-  </si>
-  <si>
-    <t>Testing Model Using DataSet</t>
-  </si>
-  <si>
-    <t>Test model using Dataset</t>
-  </si>
-  <si>
-    <t>Apply ML model in either Python/Node.js</t>
-  </si>
-  <si>
-    <t>Test from users perspective</t>
-  </si>
-  <si>
-    <t>List of Local park within certain range</t>
-  </si>
-  <si>
-    <t>Create Map Around User</t>
-  </si>
-  <si>
-    <t>Test all Functionality</t>
-  </si>
-  <si>
-    <t>Star rating - own user can't rate their own profile</t>
-  </si>
-  <si>
-    <t>Star rating - own user can rate other profile</t>
-  </si>
-  <si>
-    <t>test model using data set</t>
-  </si>
-  <si>
-    <t>Create a map of the local area around school</t>
   </si>
 </sst>
 </file>
@@ -408,6 +405,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -420,40 +420,37 @@
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -482,9 +479,6 @@
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -494,11 +488,42 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -506,36 +531,8 @@
     <xf borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,11 +629,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1126303681"/>
-        <c:axId val="1933294151"/>
+        <c:axId val="1896404990"/>
+        <c:axId val="2006671865"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1126303681"/>
+        <c:axId val="1896404990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,6 +661,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -678,10 +678,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1933294151"/>
+        <c:crossAx val="2006671865"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1933294151"/>
+        <c:axId val="2006671865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,11 +730,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -750,7 +750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1126303681"/>
+        <c:crossAx val="1896404990"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -850,11 +850,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="690231995"/>
-        <c:axId val="597167455"/>
+        <c:axId val="1765736372"/>
+        <c:axId val="1148433729"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="690231995"/>
+        <c:axId val="1765736372"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,6 +882,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -896,10 +899,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597167455"/>
+        <c:crossAx val="1148433729"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597167455"/>
+        <c:axId val="1148433729"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -948,11 +951,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -968,7 +971,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="690231995"/>
+        <c:crossAx val="1765736372"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1068,11 +1071,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1141193207"/>
-        <c:axId val="1705417254"/>
+        <c:axId val="314180671"/>
+        <c:axId val="823066851"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1141193207"/>
+        <c:axId val="314180671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,6 +1103,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1114,10 +1120,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705417254"/>
+        <c:crossAx val="823066851"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1705417254"/>
+        <c:axId val="823066851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,11 +1172,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -1186,7 +1192,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141193207"/>
+        <c:crossAx val="314180671"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1286,11 +1292,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1867974712"/>
-        <c:axId val="1560096513"/>
+        <c:axId val="864488750"/>
+        <c:axId val="1149936329"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1867974712"/>
+        <c:axId val="864488750"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,6 +1324,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1332,10 +1341,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1560096513"/>
+        <c:crossAx val="1149936329"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1560096513"/>
+        <c:axId val="1149936329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,11 +1393,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -1404,7 +1413,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1867974712"/>
+        <c:crossAx val="864488750"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1504,11 +1513,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1358112352"/>
-        <c:axId val="719855847"/>
+        <c:axId val="1998464396"/>
+        <c:axId val="2074072905"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1358112352"/>
+        <c:axId val="1998464396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,6 +1545,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1550,10 +1562,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="719855847"/>
+        <c:crossAx val="2074072905"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="719855847"/>
+        <c:axId val="2074072905"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,11 +1614,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -1622,7 +1634,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1358112352"/>
+        <c:crossAx val="1998464396"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1722,11 +1734,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="884888526"/>
-        <c:axId val="402813847"/>
+        <c:axId val="1344263670"/>
+        <c:axId val="1080280586"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="884888526"/>
+        <c:axId val="1344263670"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,6 +1766,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1768,10 +1783,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402813847"/>
+        <c:crossAx val="1080280586"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402813847"/>
+        <c:axId val="1080280586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,11 +1835,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -1840,7 +1855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="884888526"/>
+        <c:crossAx val="1344263670"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1884,7 +1899,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Burndown Chart for Sprint #7</a:t>
+              <a:t>Burndown Chart for Sprint #8</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1897,6 +1912,29 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint #8'!$A$21</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sprint #8'!$C$3:$J$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint #8'!$B$21:$J$21</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Sprint #8'!$A$22</c:f>
@@ -1917,34 +1955,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sprint #8'!$A$23</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Sprint #8'!$C$3:$J$3</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sprint #8'!$B$23:$J$23</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1169446427"/>
-        <c:axId val="691237024"/>
+        <c:axId val="1502607190"/>
+        <c:axId val="1719726403"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1169446427"/>
+        <c:axId val="1502607190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,6 +1987,9 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -1986,10 +2004,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="691237024"/>
+        <c:crossAx val="1719726403"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="691237024"/>
+        <c:axId val="1719726403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,11 +2056,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="47625">
-            <a:noFill/>
-          </a:ln>
+          <a:ln/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
@@ -2058,7 +2076,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1169446427"/>
+        <c:crossAx val="1502607190"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2104,7 +2122,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2134,7 +2152,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2164,7 +2182,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2194,7 +2212,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2224,7 +2242,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2254,7 +2272,7 @@
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2278,7 +2296,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -2543,181 +2561,181 @@
       <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
-      <c r="AR3" s="11"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
         <v>27.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>9.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>6.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>5.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>3.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>3.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>1.0</v>
       </c>
-      <c r="I4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="B6" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="10">
         <v>5.0</v>
       </c>
-      <c r="J5" s="7">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="I6" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5.0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="B7" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="11">
         <v>1.0</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="F7" s="11">
         <v>1.0</v>
       </c>
-      <c r="F7" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="G7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.0</v>
       </c>
     </row>
@@ -2725,90 +2743,90 @@
       <c r="B8" s="13"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <f>SUM(B4:B7)</f>
         <v>54</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <f>B9*(7/8)</f>
         <v>47.25</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <f>B9*(6/8)</f>
         <v>40.5</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <f>B9*(5/8)</f>
         <v>33.75</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <f>B9*(4/8)</f>
         <v>27</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <f>B9*(3/8)</f>
         <v>20.25</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="16">
         <f>B9*(2/8)</f>
         <v>13.5</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="16">
         <f>B9*(1/8)</f>
         <v>6.75</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="16">
         <f>B9*(0/8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <f>SUM(B4:B7)</f>
         <v>54</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <f t="shared" ref="C10:J10" si="1">B10-SUM(C4:C7)</f>
         <v>45</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2868,230 +2886,230 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>16.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>4.0</v>
       </c>
-      <c r="D4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="6">
         <v>3.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>3.0</v>
       </c>
-      <c r="H4" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="6">
         <v>1.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="B5" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="9">
         <v>1.0</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
         <v>3.0</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="10">
         <v>1.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>1.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>1.0</v>
       </c>
-      <c r="H6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
         <v>19.0</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="11">
         <v>3.0</v>
       </c>
-      <c r="F7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="F7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="11">
         <v>4.0</v>
       </c>
-      <c r="H7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="11">
         <v>3.0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="11">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <f>SUM(B4:B7)</f>
         <v>40</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="16">
         <f>B9*(7/8)</f>
         <v>35</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="16">
         <f>B9*(6/8)</f>
         <v>30</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="16">
         <f>B9*(5/8)</f>
         <v>25</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="16">
         <f>B9*(4/8)</f>
         <v>20</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <f>B9*(3/8)</f>
         <v>15</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="16">
         <f>B9*(2/8)</f>
         <v>10</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="16">
         <f>B9*(1/8)</f>
         <v>5</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="16">
         <f>B9*(0/8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="16">
         <f>SUM(B4:B7)</f>
         <v>40</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="16">
         <f t="shared" ref="C10:J10" si="1">B10-SUM(C4:C7)</f>
         <v>36</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="16">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="16">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="16">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="12" t="s">
-        <v>21</v>
+      <c r="B13" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +3140,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -3155,228 +3173,228 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" ref="B4:B6" si="1">SUM(C4:J4)</f>
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>5.0</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="D4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="10">
         <v>1.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>8.0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>9.0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>7.0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <v>8.0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="10">
         <v>5.0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="9">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <f>SUM(B4:B9)</f>
         <v>51</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <f>B11*(7/8)</f>
         <v>44.625</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <f>B11*(6/8)</f>
         <v>38.25</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <f>B11*(5/8)</f>
         <v>31.875</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <f>B11*(4/8)</f>
         <v>25.5</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <f>B11*(3/8)</f>
         <v>19.125</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <f>B11*(2/8)</f>
         <v>12.75</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="16">
         <f>B11*(1/8)</f>
         <v>6.375</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>90.0</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <f t="shared" ref="C12:J12" si="2">B12-SUM(C4:C9)</f>
         <v>85</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="16">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="16">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -3427,249 +3445,249 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
         <f t="shared" ref="B4:B7" si="1">SUM(C4:J4)</f>
         <v>30</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="6">
         <v>8.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>5.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>4.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>6.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>4.0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>3.0</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="8">
+      <c r="C5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="10">
         <v>4.0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="C6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="C7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="11">
         <v>4.0</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="11">
         <v>4.0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>4.0</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>4.0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="16">
         <f>SUM(B4:B9)</f>
         <v>54</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="16">
         <f>B11*(7/8)</f>
         <v>47.25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="16">
         <f>B11*(6/8)</f>
         <v>40.5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="16">
         <f>B11*(5/8)</f>
         <v>33.75</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="16">
         <f>B11*(4/8)</f>
         <v>27</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <f>B11*(3/8)</f>
         <v>20.25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="16">
         <f>B11*(2/8)</f>
         <v>13.5</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="16">
         <f>B11*(1/8)</f>
         <v>6.75</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>90.0</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="16">
         <f t="shared" ref="C12:J12" si="2">B12-SUM(C4:C9)</f>
         <v>90</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="16">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="16">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="16">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -3693,7 +3711,7 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -3726,7 +3744,7 @@
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="20">
         <v>2.0</v>
@@ -3758,7 +3776,7 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="20">
         <v>8.0</v>
@@ -3790,7 +3808,7 @@
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="20">
         <v>18.0</v>
@@ -3822,7 +3840,7 @@
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="20">
         <v>21.0</v>
@@ -3854,7 +3872,7 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="20">
         <v>5.0</v>
@@ -3886,7 +3904,7 @@
     </row>
     <row r="9">
       <c r="A9" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="20">
         <v>2.0</v>
@@ -3918,7 +3936,7 @@
     </row>
     <row r="10">
       <c r="A10" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="20">
         <v>6.0</v>
@@ -3950,7 +3968,7 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="21">
         <v>5.0</v>
@@ -3982,7 +4000,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="21">
         <v>2.0</v>
@@ -4014,7 +4032,7 @@
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="21">
         <v>8.0</v>
@@ -4202,492 +4220,492 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="28">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="31" t="s">
+      <c r="B6" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="31">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="31">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B9" s="31">
+        <v>6.0</v>
+      </c>
+      <c r="C9" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="C10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E12" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="39">
         <v>5.0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="29">
         <v>1.0</v>
       </c>
-      <c r="D5" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="32">
-        <v>10.0</v>
-      </c>
-      <c r="C6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="G13" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="C14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="39">
+        <v>6.0</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="39">
+        <v>4.0</v>
+      </c>
+      <c r="C16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I16" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="C17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="29">
         <v>5.0</v>
       </c>
-      <c r="C7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="C8" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="30">
+      <c r="H17" s="8">
         <v>3.0</v>
       </c>
-      <c r="F8" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="30">
+      <c r="I17" s="29">
         <v>5.0</v>
       </c>
-      <c r="J8" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="J17" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="39">
         <v>3.0</v>
       </c>
-      <c r="H9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="C10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="40">
-        <v>10.0</v>
-      </c>
-      <c r="C11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="31" t="s">
+      <c r="C18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I18" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B19" s="39">
         <v>5.0</v>
       </c>
-      <c r="C13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F17" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>5.0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="I17" s="30">
-        <v>5.0</v>
-      </c>
-      <c r="J17" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="44">
-        <v>5.0</v>
-      </c>
       <c r="C19" s="27">
         <v>0.0</v>
       </c>
@@ -4714,7 +4732,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="46"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -4852,7 +4870,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="15"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="25" t="s">
@@ -4887,373 +4905,373 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="36">
+        <v>5.0</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="I5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="38">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="38">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C9" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="C4" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="B10" s="40">
         <v>5.0</v>
       </c>
-      <c r="C5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="30">
+      <c r="C10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G11" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="38">
+        <v>7.0</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="29">
         <v>1.0</v>
       </c>
-      <c r="H5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="J5" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="C6" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="37">
-        <v>6.0</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="G12" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="40">
+        <v>3.0</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="40">
+        <v>15.0</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="40">
         <v>5.0</v>
       </c>
-      <c r="C8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="C15" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="29">
         <v>3.0</v>
       </c>
-      <c r="D9" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>5.0</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="37">
-        <v>4.0</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="37">
-        <v>7.0</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="J12" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="27">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="42">
-        <v>15.0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="42">
-        <v>5.0</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>3.0</v>
-      </c>
       <c r="F15" s="27">
         <v>0.0</v>
       </c>
@@ -5266,24 +5284,24 @@
       <c r="I15" s="27">
         <v>0.0</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="G16" s="29"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -5294,8 +5312,8 @@
       <c r="J17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -5306,7 +5324,7 @@
       <c r="J18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="46"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -5497,54 +5515,54 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="A4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8">
         <v>10.0</v>
       </c>
-      <c r="C4" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="8">
         <v>1.0</v>
       </c>
-      <c r="E4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="E4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="A5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8">
         <v>15.0</v>
       </c>
-      <c r="C5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E5" s="30">
+      <c r="C5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="29">
         <v>3.0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>1.0</v>
       </c>
       <c r="G5" s="27">
@@ -5556,59 +5574,59 @@
       <c r="I5" s="27">
         <v>0.0</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="45">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="A6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="8">
         <v>7.0</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="29">
         <v>1.0</v>
       </c>
-      <c r="D6" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="G6" s="30">
+      <c r="D6" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="29">
         <v>1.0</v>
       </c>
-      <c r="H6" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="30">
+      <c r="H6" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="A7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="8">
         <v>8.0</v>
       </c>
-      <c r="C7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="C7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="29">
         <v>1.0</v>
       </c>
       <c r="G7" s="27">
@@ -5620,65 +5638,65 @@
       <c r="I7" s="27">
         <v>0.0</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8">
         <v>20.0</v>
       </c>
-      <c r="C8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="30">
+      <c r="C8" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="29">
         <v>5.0</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>5.0</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>5.0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>5.0</v>
       </c>
-      <c r="I8" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="30">
+      <c r="I8" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12">
-      <c r="A12" s="39"/>
+      <c r="A12" s="47"/>
     </row>
     <row r="14">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="44"/>
     </row>
     <row r="17">
-      <c r="A17" s="15"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="15"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
@@ -5769,7 +5787,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.29"/>
+    <col customWidth="1" min="1" max="1" width="58.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5829,409 +5847,377 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="C4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="47" t="s">
+      <c r="B7" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B8" s="8">
         <v>10.0</v>
       </c>
-      <c r="C5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="47" t="s">
+      <c r="C8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="47" t="s">
+      <c r="B9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="47" t="s">
+      <c r="B10" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12">
-        <v>10.0</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="47" t="s">
+      <c r="B11" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="12">
-        <v>7.0</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="B12" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="44"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="24">
+        <f>SUM(B4:B15)</f>
         <v>75</v>
       </c>
-      <c r="B12" s="12">
-        <v>15.0</v>
-      </c>
-      <c r="C12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="12">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="15"/>
+      <c r="C21" s="24">
+        <f>B21*(7/8)</f>
+        <v>65.625</v>
+      </c>
+      <c r="D21" s="24">
+        <f>B21*(6/8)</f>
+        <v>56.25</v>
+      </c>
+      <c r="E21" s="24">
+        <f>B21*(5/8)</f>
+        <v>46.875</v>
+      </c>
+      <c r="F21" s="24">
+        <f>B21*(4/8)</f>
+        <v>37.5</v>
+      </c>
+      <c r="G21" s="24">
+        <f>B21*(3/8)</f>
+        <v>28.125</v>
+      </c>
+      <c r="H21" s="24">
+        <f>B21*(2/8)</f>
+        <v>18.75</v>
+      </c>
+      <c r="I21" s="24">
+        <f>B21*(1/8)</f>
+        <v>9.375</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="24">
-        <f>SUM(B4:B16)</f>
-        <v>90</v>
+        <f>SUM(B4:B15)</f>
+        <v>75</v>
       </c>
       <c r="C22" s="24">
-        <f>B22*(7/8)</f>
-        <v>78.75</v>
+        <f t="shared" ref="C22:I22" si="1">B22-SUM(C4:C8)</f>
+        <v>66</v>
       </c>
       <c r="D22" s="24">
-        <f>B22*(6/8)</f>
-        <v>67.5</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
       <c r="E22" s="24">
-        <f>B22*(5/8)</f>
-        <v>56.25</v>
+        <f t="shared" si="1"/>
+        <v>45</v>
       </c>
       <c r="F22" s="24">
-        <f>B22*(4/8)</f>
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>39</v>
       </c>
       <c r="G22" s="24">
-        <f>B22*(3/8)</f>
-        <v>33.75</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="H22" s="24">
-        <f>B22*(2/8)</f>
-        <v>22.5</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="I22" s="24">
-        <f>B22*(1/8)</f>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="24">
-        <f>SUM(B4:B16)</f>
-        <v>90</v>
-      </c>
-      <c r="C23" s="24">
-        <f t="shared" ref="C23:I23" si="1">B23-SUM(C4:C8)</f>
-        <v>90</v>
-      </c>
-      <c r="D23" s="24">
         <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="E23" s="24">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="F23" s="24">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G23" s="24">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="H23" s="24">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="I23" s="24">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
